--- a/Code/Results/Cases/Case_1_80/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_80/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.65904715145335</v>
+        <v>14.03311277436778</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.077105412684125</v>
+        <v>7.388192954733805</v>
       </c>
       <c r="E2">
-        <v>7.753233814315642</v>
+        <v>12.87265837027168</v>
       </c>
       <c r="F2">
-        <v>29.05633029426452</v>
+        <v>40.58806043070942</v>
       </c>
       <c r="G2">
-        <v>37.78150077622629</v>
+        <v>47.91711018936709</v>
       </c>
       <c r="H2">
-        <v>12.49930102924711</v>
+        <v>19.06477042075052</v>
       </c>
       <c r="I2">
-        <v>20.3303269864745</v>
+        <v>30.70501778969327</v>
       </c>
       <c r="J2">
-        <v>6.439587275845956</v>
+        <v>10.40892301417651</v>
       </c>
       <c r="K2">
-        <v>13.85458232964136</v>
+        <v>11.8839660152618</v>
       </c>
       <c r="L2">
-        <v>7.719222990206216</v>
+        <v>11.0103834114437</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.03048595443856</v>
+        <v>13.92420072254983</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.030144186930879</v>
+        <v>7.38961780345785</v>
       </c>
       <c r="E3">
-        <v>7.780445154529921</v>
+        <v>12.88998932666533</v>
       </c>
       <c r="F3">
-        <v>28.71084693494501</v>
+        <v>40.6408985370179</v>
       </c>
       <c r="G3">
-        <v>37.07344811577132</v>
+        <v>47.9270237027513</v>
       </c>
       <c r="H3">
-        <v>12.48479424719999</v>
+        <v>19.10932683946282</v>
       </c>
       <c r="I3">
-        <v>20.51745437935211</v>
+        <v>30.80580600551322</v>
       </c>
       <c r="J3">
-        <v>6.474572962549789</v>
+        <v>10.42161312577418</v>
       </c>
       <c r="K3">
-        <v>12.97651138139174</v>
+        <v>11.67134503735698</v>
       </c>
       <c r="L3">
-        <v>7.431264251752173</v>
+        <v>10.98397211551211</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.63016107796803</v>
+        <v>13.85942672162227</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.001954533758859</v>
+        <v>7.390960084707104</v>
       </c>
       <c r="E4">
-        <v>7.798649733140901</v>
+        <v>12.90136481853177</v>
       </c>
       <c r="F4">
-        <v>28.51999812965067</v>
+        <v>40.68203147786414</v>
       </c>
       <c r="G4">
-        <v>36.66861317865795</v>
+        <v>47.94583086333256</v>
       </c>
       <c r="H4">
-        <v>12.48425044818865</v>
+        <v>19.13988751981443</v>
       </c>
       <c r="I4">
-        <v>20.64409407136924</v>
+        <v>30.8724136939007</v>
       </c>
       <c r="J4">
-        <v>6.496856280616021</v>
+        <v>10.42983606565645</v>
       </c>
       <c r="K4">
-        <v>12.40797977993294</v>
+        <v>11.54129312456767</v>
       </c>
       <c r="L4">
-        <v>7.252522113792377</v>
+        <v>10.96954968075215</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.4635783172996</v>
+        <v>13.83358292304378</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.990630926894079</v>
+        <v>7.391625054949845</v>
       </c>
       <c r="E5">
-        <v>7.806439502096289</v>
+        <v>12.9061854763464</v>
       </c>
       <c r="F5">
-        <v>28.44747902277908</v>
+        <v>40.70097518542708</v>
       </c>
       <c r="G5">
-        <v>36.51111483384324</v>
+        <v>47.95668890611893</v>
       </c>
       <c r="H5">
-        <v>12.48605836764508</v>
+        <v>19.15314571474011</v>
       </c>
       <c r="I5">
-        <v>20.69855008316565</v>
+        <v>30.90074415273279</v>
       </c>
       <c r="J5">
-        <v>6.506140289159343</v>
+        <v>10.43329569576371</v>
       </c>
       <c r="K5">
-        <v>12.1688948735471</v>
+        <v>11.48849356959087</v>
       </c>
       <c r="L5">
-        <v>7.179297880807625</v>
+        <v>10.96412775721098</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.43571483873629</v>
+        <v>13.82932562429163</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.98876060629486</v>
+        <v>7.391742611278216</v>
       </c>
       <c r="E6">
-        <v>7.807755269041222</v>
+        <v>12.90699713224924</v>
       </c>
       <c r="F6">
-        <v>28.43575147552613</v>
+        <v>40.70425242704609</v>
       </c>
       <c r="G6">
-        <v>36.48541199744901</v>
+        <v>47.95868460942661</v>
       </c>
       <c r="H6">
-        <v>12.48647900606418</v>
+        <v>19.15539578786076</v>
       </c>
       <c r="I6">
-        <v>20.70776165597761</v>
+        <v>30.90552010059873</v>
       </c>
       <c r="J6">
-        <v>6.50769422508642</v>
+        <v>10.43387673958373</v>
       </c>
       <c r="K6">
-        <v>12.12874770407478</v>
+        <v>11.47974031033907</v>
       </c>
       <c r="L6">
-        <v>7.167118928180384</v>
+        <v>10.96325506667277</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.62792819146</v>
+        <v>13.85907591591728</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.001801153469946</v>
+        <v>7.390968574436934</v>
       </c>
       <c r="E7">
-        <v>7.798753291914792</v>
+        <v>12.90142908175498</v>
       </c>
       <c r="F7">
-        <v>28.51899897894864</v>
+        <v>40.68227813090463</v>
       </c>
       <c r="G7">
-        <v>36.66645891337602</v>
+        <v>47.94596437410794</v>
       </c>
       <c r="H7">
-        <v>12.48426670984783</v>
+        <v>19.1400630684881</v>
       </c>
       <c r="I7">
-        <v>20.64481707924365</v>
+        <v>30.87279096169562</v>
       </c>
       <c r="J7">
-        <v>6.496980662272418</v>
+        <v>10.42988228285596</v>
       </c>
       <c r="K7">
-        <v>12.40478538286337</v>
+        <v>11.54058015486486</v>
       </c>
       <c r="L7">
-        <v>7.251536005514943</v>
+        <v>10.96947470993035</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.44539679214125</v>
+        <v>13.99513931337512</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.060780343600594</v>
+        <v>7.388587497083436</v>
       </c>
       <c r="E8">
-        <v>7.762302437396809</v>
+        <v>12.87848195510916</v>
       </c>
       <c r="F8">
-        <v>28.93273609193469</v>
+        <v>40.60447346348327</v>
       </c>
       <c r="G8">
-        <v>37.53113492334398</v>
+        <v>47.91788608770037</v>
       </c>
       <c r="H8">
-        <v>12.49251892308316</v>
+        <v>19.07946818844306</v>
       </c>
       <c r="I8">
-        <v>20.39234692687543</v>
+        <v>30.7387889841901</v>
       </c>
       <c r="J8">
-        <v>6.451484931600325</v>
+        <v>10.41320925621795</v>
       </c>
       <c r="K8">
-        <v>13.55791266163672</v>
+        <v>11.81059404964571</v>
       </c>
       <c r="L8">
-        <v>7.620393679830823</v>
+        <v>11.00090701551052</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.92846455209662</v>
+        <v>14.27749500523987</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.18149970015879</v>
+        <v>7.38760776333276</v>
       </c>
       <c r="E9">
-        <v>7.702951636311144</v>
+        <v>12.83928923201478</v>
       </c>
       <c r="F9">
-        <v>29.91671970026524</v>
+        <v>40.52098201116154</v>
       </c>
       <c r="G9">
-        <v>39.46520409474869</v>
+        <v>47.96387642840126</v>
       </c>
       <c r="H9">
-        <v>12.57837081813684</v>
+        <v>18.98609432988077</v>
       </c>
       <c r="I9">
-        <v>19.99543566785407</v>
+        <v>30.51350795702251</v>
       </c>
       <c r="J9">
-        <v>6.368552303997527</v>
+        <v>10.38392102719019</v>
       </c>
       <c r="K9">
-        <v>15.58713211758887</v>
+        <v>12.34091782841432</v>
       </c>
       <c r="L9">
-        <v>8.324487320127561</v>
+        <v>11.07658393988806</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.93908968750473</v>
+        <v>14.49287277089721</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.273254222108856</v>
+        <v>7.38911181675891</v>
       </c>
       <c r="E10">
-        <v>7.667133016862896</v>
+        <v>12.81400793544475</v>
       </c>
       <c r="F10">
-        <v>30.7494686708848</v>
+        <v>40.50189662232489</v>
       </c>
       <c r="G10">
-        <v>41.03216414003265</v>
+        <v>48.05931275086711</v>
       </c>
       <c r="H10">
-        <v>12.68848457472592</v>
+        <v>18.9330602479775</v>
       </c>
       <c r="I10">
-        <v>19.77116894588653</v>
+        <v>30.37087857132837</v>
       </c>
       <c r="J10">
-        <v>6.311342028329345</v>
+        <v>10.36446133830929</v>
       </c>
       <c r="K10">
-        <v>16.93883183826652</v>
+        <v>12.7269817407617</v>
       </c>
       <c r="L10">
-        <v>8.825661094508048</v>
+        <v>11.14045547301791</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.3809429587297</v>
+        <v>14.5922377579708</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.315671466660918</v>
+        <v>7.390273412838609</v>
       </c>
       <c r="E11">
-        <v>7.652628718026608</v>
+        <v>12.80326424169993</v>
       </c>
       <c r="F11">
-        <v>31.15298313451172</v>
+        <v>40.50240421153173</v>
       </c>
       <c r="G11">
-        <v>41.77671719661715</v>
+        <v>48.11607998658808</v>
       </c>
       <c r="H11">
-        <v>12.74978205274054</v>
+        <v>18.91232361747078</v>
       </c>
       <c r="I11">
-        <v>19.68558015032977</v>
+        <v>30.31096785090297</v>
       </c>
       <c r="J11">
-        <v>6.28609971476861</v>
+        <v>10.35605155742546</v>
       </c>
       <c r="K11">
-        <v>17.52419915086797</v>
+        <v>12.90102150682047</v>
       </c>
       <c r="L11">
-        <v>9.049455571213837</v>
+        <v>11.17124029109452</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.5456513966651</v>
+        <v>14.63003552472333</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.331833219817998</v>
+        <v>7.390781433370631</v>
       </c>
       <c r="E12">
-        <v>7.647403206063759</v>
+        <v>12.79930429997163</v>
       </c>
       <c r="F12">
-        <v>31.30939509840314</v>
+        <v>40.50391758398438</v>
       </c>
       <c r="G12">
-        <v>42.06322210596728</v>
+        <v>48.1394895449462</v>
       </c>
       <c r="H12">
-        <v>12.77468733252878</v>
+        <v>18.90495915487586</v>
       </c>
       <c r="I12">
-        <v>19.65569766234591</v>
+        <v>30.28899682300623</v>
       </c>
       <c r="J12">
-        <v>6.276651860755226</v>
+        <v>10.35293032495925</v>
       </c>
       <c r="K12">
-        <v>17.74167930796862</v>
+        <v>12.96663401622765</v>
       </c>
       <c r="L12">
-        <v>9.133553940737183</v>
+        <v>11.18314007086354</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.51029510960406</v>
+        <v>14.6218879874965</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.328348040425015</v>
+        <v>7.390668999160088</v>
       </c>
       <c r="E13">
-        <v>7.648516576489155</v>
+        <v>12.80015232639549</v>
       </c>
       <c r="F13">
-        <v>31.27554749657689</v>
+        <v>40.50353290696811</v>
       </c>
       <c r="G13">
-        <v>42.00131535292599</v>
+        <v>48.13436293141723</v>
       </c>
       <c r="H13">
-        <v>12.76924691248925</v>
+        <v>18.90652350672091</v>
       </c>
       <c r="I13">
-        <v>19.66201818781867</v>
+        <v>30.29369682470167</v>
       </c>
       <c r="J13">
-        <v>6.278681721573473</v>
+        <v>10.35359972407315</v>
       </c>
       <c r="K13">
-        <v>17.69502619117945</v>
+        <v>12.95251720062132</v>
       </c>
       <c r="L13">
-        <v>9.115471263010765</v>
+        <v>11.18056657260074</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.39454613570711</v>
+        <v>14.59534415580118</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.316999099724169</v>
+        <v>7.390313845074107</v>
       </c>
       <c r="E14">
-        <v>7.652193403119298</v>
+        <v>12.80293628332712</v>
       </c>
       <c r="F14">
-        <v>31.16577855753384</v>
+        <v>40.50250224430846</v>
       </c>
       <c r="G14">
-        <v>41.80019675196759</v>
+        <v>48.11796761344443</v>
       </c>
       <c r="H14">
-        <v>12.75179661725275</v>
+        <v>18.91170795355366</v>
       </c>
       <c r="I14">
-        <v>19.68307004187704</v>
+        <v>30.30914592920369</v>
       </c>
       <c r="J14">
-        <v>6.285320222025588</v>
+        <v>10.35579350325713</v>
       </c>
       <c r="K14">
-        <v>17.54217489219866</v>
+        <v>12.90642571169991</v>
       </c>
       <c r="L14">
-        <v>9.056387595956005</v>
+        <v>11.17221447631803</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.32330550999527</v>
+        <v>14.57910661376231</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.310060547235272</v>
+        <v>7.390105163006891</v>
       </c>
       <c r="E15">
-        <v>7.654480633509123</v>
+        <v>12.80465565110508</v>
       </c>
       <c r="F15">
-        <v>31.09901376226991</v>
+        <v>40.50204296434388</v>
       </c>
       <c r="G15">
-        <v>41.67759952975051</v>
+        <v>48.10817389338033</v>
       </c>
       <c r="H15">
-        <v>12.74133076590518</v>
+        <v>18.91494715576133</v>
       </c>
       <c r="I15">
-        <v>19.69629926361884</v>
+        <v>30.31870220441274</v>
       </c>
       <c r="J15">
-        <v>6.289400882259306</v>
+        <v>10.35714550101746</v>
       </c>
       <c r="K15">
-        <v>17.44800586139606</v>
+        <v>12.87815336902664</v>
       </c>
       <c r="L15">
-        <v>9.020111636925646</v>
+        <v>11.16712992625762</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.90984984366536</v>
+        <v>14.4864044769434</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.270495920152681</v>
+        <v>7.389045467649994</v>
       </c>
       <c r="E16">
-        <v>7.668117716631628</v>
+        <v>12.81472525930617</v>
       </c>
       <c r="F16">
-        <v>30.72359999218172</v>
+        <v>40.50204836279809</v>
       </c>
       <c r="G16">
-        <v>40.98414383250682</v>
+        <v>48.05587101722727</v>
       </c>
       <c r="H16">
-        <v>12.68471110844344</v>
+        <v>18.93448369279242</v>
       </c>
       <c r="I16">
-        <v>19.77710687093989</v>
+        <v>30.37489400412174</v>
       </c>
       <c r="J16">
-        <v>6.313007279483239</v>
+        <v>10.36501981927889</v>
       </c>
       <c r="K16">
-        <v>16.89998752900999</v>
+        <v>12.71557035664135</v>
       </c>
       <c r="L16">
-        <v>8.810947160053441</v>
+        <v>11.1384778680999</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.65159353989913</v>
+        <v>14.42986957481514</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.246398795220199</v>
+        <v>7.388517298767634</v>
       </c>
       <c r="E17">
-        <v>7.676948515586396</v>
+        <v>12.82109622610513</v>
       </c>
       <c r="F17">
-        <v>30.49966252373644</v>
+        <v>40.50440541450806</v>
       </c>
       <c r="G17">
-        <v>40.56685339209006</v>
+        <v>48.0272005457235</v>
       </c>
       <c r="H17">
-        <v>12.65290486002266</v>
+        <v>18.94733724183428</v>
       </c>
       <c r="I17">
-        <v>19.83100199103399</v>
+        <v>30.4106399498993</v>
       </c>
       <c r="J17">
-        <v>6.327688331460831</v>
+        <v>10.36996361064898</v>
       </c>
       <c r="K17">
-        <v>16.55627395120145</v>
+        <v>12.61537833455364</v>
       </c>
       <c r="L17">
-        <v>8.681522483943127</v>
+        <v>11.12133920118813</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.50136914914097</v>
+        <v>14.39748465529278</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.232602375423405</v>
+        <v>7.388258475167525</v>
       </c>
       <c r="E18">
-        <v>7.682195584810339</v>
+        <v>12.82483190267231</v>
       </c>
       <c r="F18">
-        <v>30.37318045776909</v>
+        <v>40.50662617048758</v>
       </c>
       <c r="G18">
-        <v>40.32982599733071</v>
+        <v>48.01196744174311</v>
       </c>
       <c r="H18">
-        <v>12.63566058193653</v>
+        <v>18.95504919811971</v>
       </c>
       <c r="I18">
-        <v>19.86353700931569</v>
+        <v>30.43166801681065</v>
       </c>
       <c r="J18">
-        <v>6.336206278608521</v>
+        <v>10.37284881738403</v>
       </c>
       <c r="K18">
-        <v>16.35579565154267</v>
+        <v>12.55760525797407</v>
       </c>
       <c r="L18">
-        <v>8.606688261894927</v>
+        <v>11.11164467235387</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.45021832687823</v>
+        <v>14.38654331829708</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.227942033199797</v>
+        <v>7.388178579801543</v>
       </c>
       <c r="E19">
-        <v>7.684000701988128</v>
+        <v>12.82610898998383</v>
       </c>
       <c r="F19">
-        <v>30.3307525982466</v>
+        <v>40.50752664746145</v>
       </c>
       <c r="G19">
-        <v>40.25008590272134</v>
+        <v>48.00702591160304</v>
       </c>
       <c r="H19">
-        <v>12.62999979887025</v>
+        <v>18.95771508747029</v>
       </c>
       <c r="I19">
-        <v>19.87481177132554</v>
+        <v>30.43886810228896</v>
       </c>
       <c r="J19">
-        <v>6.339103036366655</v>
+        <v>10.37383286359741</v>
       </c>
       <c r="K19">
-        <v>16.28743738078169</v>
+        <v>12.53802136865034</v>
       </c>
       <c r="L19">
-        <v>8.581284800182596</v>
+        <v>11.10839048871924</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.67925980745025</v>
+        <v>14.43587431416853</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.248957382584752</v>
+        <v>7.388568873120985</v>
       </c>
       <c r="E20">
-        <v>7.675991026462732</v>
+        <v>12.82041065292256</v>
       </c>
       <c r="F20">
-        <v>30.52326042207773</v>
+        <v>40.50406497313793</v>
       </c>
       <c r="G20">
-        <v>40.61096558925777</v>
+        <v>48.03012247492494</v>
       </c>
       <c r="H20">
-        <v>12.65618144613576</v>
+        <v>18.94593594537919</v>
       </c>
       <c r="I20">
-        <v>19.82510463734171</v>
+        <v>30.40678629609855</v>
       </c>
       <c r="J20">
-        <v>6.326117883557298</v>
+        <v>10.36943302500249</v>
       </c>
       <c r="K20">
-        <v>16.59315049901042</v>
+        <v>12.62605946285479</v>
       </c>
       <c r="L20">
-        <v>8.695340950752939</v>
+        <v>11.12314679877289</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.42861553536616</v>
+        <v>14.60313633157905</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.320329844251016</v>
+        <v>7.390416316915226</v>
       </c>
       <c r="E21">
-        <v>7.651106103219036</v>
+        <v>12.80211562706674</v>
       </c>
       <c r="F21">
-        <v>31.19792191711176</v>
+        <v>40.50276912559467</v>
       </c>
       <c r="G21">
-        <v>41.85914642059208</v>
+        <v>48.122731464003</v>
       </c>
       <c r="H21">
-        <v>12.75687558010251</v>
+        <v>18.91017190488214</v>
       </c>
       <c r="I21">
-        <v>19.67681661078334</v>
+        <v>30.30458871737128</v>
       </c>
       <c r="J21">
-        <v>6.283367338302713</v>
+        <v>10.35514741942352</v>
       </c>
       <c r="K21">
-        <v>17.58718410798027</v>
+        <v>12.91997234135819</v>
       </c>
       <c r="L21">
-        <v>9.073759786058545</v>
+        <v>11.17466116804514</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.9031319483224</v>
+        <v>14.7134313636732</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.367556203139719</v>
+        <v>7.392020716006607</v>
       </c>
       <c r="E22">
-        <v>7.636403622087416</v>
+        <v>12.79079079610991</v>
       </c>
       <c r="F22">
-        <v>31.6599209216565</v>
+        <v>40.50962220479573</v>
       </c>
       <c r="G22">
-        <v>42.70148379044834</v>
+        <v>48.19440257277495</v>
       </c>
       <c r="H22">
-        <v>12.8325934132439</v>
+        <v>18.88964304116811</v>
       </c>
       <c r="I22">
-        <v>19.59472328931735</v>
+        <v>30.24196969775351</v>
       </c>
       <c r="J22">
-        <v>6.256072805028577</v>
+        <v>10.34618019194909</v>
       </c>
       <c r="K22">
-        <v>18.21247783678638</v>
+        <v>13.11032825813641</v>
       </c>
       <c r="L22">
-        <v>9.317289454146607</v>
+        <v>11.2097375308517</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.65127624898222</v>
+        <v>14.65448487607193</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.342296582058918</v>
+        <v>7.391128261090202</v>
       </c>
       <c r="E23">
-        <v>7.644104299711968</v>
+        <v>12.79677736521384</v>
       </c>
       <c r="F23">
-        <v>31.4113959258281</v>
+        <v>40.5052603554468</v>
       </c>
       <c r="G23">
-        <v>42.2494790100019</v>
+        <v>48.15513343242776</v>
       </c>
       <c r="H23">
-        <v>12.79124743131063</v>
+        <v>18.90033914322374</v>
       </c>
       <c r="I23">
-        <v>19.63712402937075</v>
+        <v>30.27500852321687</v>
       </c>
       <c r="J23">
-        <v>6.270581914305244</v>
+        <v>10.350932471636</v>
       </c>
       <c r="K23">
-        <v>17.88095441869156</v>
+        <v>13.00891092327281</v>
       </c>
       <c r="L23">
-        <v>9.187671878970074</v>
+        <v>11.19088992145202</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.66675733367479</v>
+        <v>14.4331592025009</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.247800466761195</v>
+        <v>7.388545416709783</v>
       </c>
       <c r="E24">
-        <v>7.676423378103851</v>
+        <v>12.82072037340419</v>
       </c>
       <c r="F24">
-        <v>30.51258476928218</v>
+        <v>40.5042161901377</v>
       </c>
       <c r="G24">
-        <v>40.59101349867839</v>
+        <v>48.02879757667537</v>
       </c>
       <c r="H24">
-        <v>12.65469686351467</v>
+        <v>18.94656846763549</v>
       </c>
       <c r="I24">
-        <v>19.82776601541849</v>
+        <v>30.4085270464024</v>
       </c>
       <c r="J24">
-        <v>6.326827641170762</v>
+        <v>10.36967276895639</v>
       </c>
       <c r="K24">
-        <v>16.5764875643098</v>
+        <v>12.62123105346823</v>
       </c>
       <c r="L24">
-        <v>8.689094946053597</v>
+        <v>11.12232908901962</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.54079974595336</v>
+        <v>14.19960382641056</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.148304798158846</v>
+        <v>7.387480400522503</v>
       </c>
       <c r="E25">
-        <v>7.717671157887255</v>
+        <v>12.8492729975108</v>
       </c>
       <c r="F25">
-        <v>29.63153741480575</v>
+        <v>40.53615523331097</v>
       </c>
       <c r="G25">
-        <v>38.91635061006519</v>
+        <v>47.94060348844324</v>
       </c>
       <c r="H25">
-        <v>12.54721718950919</v>
+        <v>19.00862398474359</v>
       </c>
       <c r="I25">
-        <v>20.0915617847562</v>
+        <v>30.57043559026915</v>
       </c>
       <c r="J25">
-        <v>6.390326445534707</v>
+        <v>10.39148143805495</v>
       </c>
       <c r="K25">
-        <v>15.06281239999427</v>
+        <v>12.19779102909269</v>
       </c>
       <c r="L25">
-        <v>8.136567581433624</v>
+        <v>11.05463659283838</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_80/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_80/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.03311277436778</v>
+        <v>11.65904715145336</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.388192954733805</v>
+        <v>4.077105412684126</v>
       </c>
       <c r="E2">
-        <v>12.87265837027168</v>
+        <v>7.753233814315704</v>
       </c>
       <c r="F2">
-        <v>40.58806043070942</v>
+        <v>29.05633029426441</v>
       </c>
       <c r="G2">
-        <v>47.91711018936709</v>
+        <v>37.78150077622607</v>
       </c>
       <c r="H2">
-        <v>19.06477042075052</v>
+        <v>12.49930102924706</v>
       </c>
       <c r="I2">
-        <v>30.70501778969327</v>
+        <v>20.33032698647442</v>
       </c>
       <c r="J2">
-        <v>10.40892301417651</v>
+        <v>6.439587275846025</v>
       </c>
       <c r="K2">
-        <v>11.8839660152618</v>
+        <v>13.85458232964139</v>
       </c>
       <c r="L2">
-        <v>11.0103834114437</v>
+        <v>7.7192229902062</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.92420072254983</v>
+        <v>11.03048595443855</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.38961780345785</v>
+        <v>4.030144186930705</v>
       </c>
       <c r="E3">
-        <v>12.88998932666533</v>
+        <v>7.780445154529793</v>
       </c>
       <c r="F3">
-        <v>40.6408985370179</v>
+        <v>28.71084693494491</v>
       </c>
       <c r="G3">
-        <v>47.9270237027513</v>
+        <v>37.07344811577143</v>
       </c>
       <c r="H3">
-        <v>19.10932683946282</v>
+        <v>12.48479424719996</v>
       </c>
       <c r="I3">
-        <v>30.80580600551322</v>
+        <v>20.51745437935197</v>
       </c>
       <c r="J3">
-        <v>10.42161312577418</v>
+        <v>6.474572962549756</v>
       </c>
       <c r="K3">
-        <v>11.67134503735698</v>
+        <v>12.97651138139173</v>
       </c>
       <c r="L3">
-        <v>10.98397211551211</v>
+        <v>7.431264251752168</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.85942672162227</v>
+        <v>10.63016107796806</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.390960084707104</v>
+        <v>4.001954533758916</v>
       </c>
       <c r="E4">
-        <v>12.90136481853177</v>
+        <v>7.798649733141034</v>
       </c>
       <c r="F4">
-        <v>40.68203147786414</v>
+        <v>28.5199981296509</v>
       </c>
       <c r="G4">
-        <v>47.94583086333256</v>
+        <v>36.66861317865834</v>
       </c>
       <c r="H4">
-        <v>19.13988751981443</v>
+        <v>12.48425044818872</v>
       </c>
       <c r="I4">
-        <v>30.8724136939007</v>
+        <v>20.64409407136935</v>
       </c>
       <c r="J4">
-        <v>10.42983606565645</v>
+        <v>6.496856280616123</v>
       </c>
       <c r="K4">
-        <v>11.54129312456767</v>
+        <v>12.40797977993288</v>
       </c>
       <c r="L4">
-        <v>10.96954968075215</v>
+        <v>7.252522113792427</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.83358292304378</v>
+        <v>10.46357831729954</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.391625054949845</v>
+        <v>3.990630926894021</v>
       </c>
       <c r="E5">
-        <v>12.9061854763464</v>
+        <v>7.806439502096292</v>
       </c>
       <c r="F5">
-        <v>40.70097518542708</v>
+        <v>28.44747902277914</v>
       </c>
       <c r="G5">
-        <v>47.95668890611893</v>
+        <v>36.51111483384324</v>
       </c>
       <c r="H5">
-        <v>19.15314571474011</v>
+        <v>12.48605836764509</v>
       </c>
       <c r="I5">
-        <v>30.90074415273279</v>
+        <v>20.69855008316559</v>
       </c>
       <c r="J5">
-        <v>10.43329569576371</v>
+        <v>6.506140289159308</v>
       </c>
       <c r="K5">
-        <v>11.48849356959087</v>
+        <v>12.16889487354715</v>
       </c>
       <c r="L5">
-        <v>10.96412775721098</v>
+        <v>7.179297880807671</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.82932562429163</v>
+        <v>10.43571483873632</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.391742611278216</v>
+        <v>3.988760606294958</v>
       </c>
       <c r="E6">
-        <v>12.90699713224924</v>
+        <v>7.807755269041289</v>
       </c>
       <c r="F6">
-        <v>40.70425242704609</v>
+        <v>28.43575147552603</v>
       </c>
       <c r="G6">
-        <v>47.95868460942661</v>
+        <v>36.48541199744885</v>
       </c>
       <c r="H6">
-        <v>19.15539578786076</v>
+        <v>12.48647900606413</v>
       </c>
       <c r="I6">
-        <v>30.90552010059873</v>
+        <v>20.70776165597753</v>
       </c>
       <c r="J6">
-        <v>10.43387673958373</v>
+        <v>6.50769422508642</v>
       </c>
       <c r="K6">
-        <v>11.47974031033907</v>
+        <v>12.1287477040748</v>
       </c>
       <c r="L6">
-        <v>10.96325506667277</v>
+        <v>7.167118928180368</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.85907591591728</v>
+        <v>10.62792819145994</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.390968574436934</v>
+        <v>4.00180115346995</v>
       </c>
       <c r="E7">
-        <v>12.90142908175498</v>
+        <v>7.798753291914792</v>
       </c>
       <c r="F7">
-        <v>40.68227813090463</v>
+        <v>28.51899897894869</v>
       </c>
       <c r="G7">
-        <v>47.94596437410794</v>
+        <v>36.66645891337612</v>
       </c>
       <c r="H7">
-        <v>19.1400630684881</v>
+        <v>12.48426670984788</v>
       </c>
       <c r="I7">
-        <v>30.87279096169562</v>
+        <v>20.64481707924363</v>
       </c>
       <c r="J7">
-        <v>10.42988228285596</v>
+        <v>6.496980662272421</v>
       </c>
       <c r="K7">
-        <v>11.54058015486486</v>
+        <v>12.40478538286337</v>
       </c>
       <c r="L7">
-        <v>10.96947470993035</v>
+        <v>7.251536005514978</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.99513931337512</v>
+        <v>11.44539679214127</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.388587497083436</v>
+        <v>4.06078034360053</v>
       </c>
       <c r="E8">
-        <v>12.87848195510916</v>
+        <v>7.762302437396674</v>
       </c>
       <c r="F8">
-        <v>40.60447346348327</v>
+        <v>28.93273609193464</v>
       </c>
       <c r="G8">
-        <v>47.91788608770037</v>
+        <v>37.53113492334391</v>
       </c>
       <c r="H8">
-        <v>19.07946818844306</v>
+        <v>12.49251892308316</v>
       </c>
       <c r="I8">
-        <v>30.7387889841901</v>
+        <v>20.39234692687543</v>
       </c>
       <c r="J8">
-        <v>10.41320925621795</v>
+        <v>6.451484931600193</v>
       </c>
       <c r="K8">
-        <v>11.81059404964571</v>
+        <v>13.55791266163673</v>
       </c>
       <c r="L8">
-        <v>11.00090701551052</v>
+        <v>7.620393679830746</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27749500523987</v>
+        <v>12.92846455209661</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.38760776333276</v>
+        <v>4.181499700158626</v>
       </c>
       <c r="E9">
-        <v>12.83928923201478</v>
+        <v>7.702951636311211</v>
       </c>
       <c r="F9">
-        <v>40.52098201116154</v>
+        <v>29.91671970026521</v>
       </c>
       <c r="G9">
-        <v>47.96387642840126</v>
+        <v>39.46520409474875</v>
       </c>
       <c r="H9">
-        <v>18.98609432988077</v>
+        <v>12.57837081813685</v>
       </c>
       <c r="I9">
-        <v>30.51350795702251</v>
+        <v>19.99543566785412</v>
       </c>
       <c r="J9">
-        <v>10.38392102719019</v>
+        <v>6.368552303997728</v>
       </c>
       <c r="K9">
-        <v>12.34091782841432</v>
+        <v>15.58713211758888</v>
       </c>
       <c r="L9">
-        <v>11.07658393988806</v>
+        <v>8.324487320127568</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.49287277089721</v>
+        <v>13.93908968750473</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.38911181675891</v>
+        <v>4.273254222108861</v>
       </c>
       <c r="E10">
-        <v>12.81400793544475</v>
+        <v>7.667133016862765</v>
       </c>
       <c r="F10">
-        <v>40.50189662232489</v>
+        <v>30.74946867088483</v>
       </c>
       <c r="G10">
-        <v>48.05931275086711</v>
+        <v>41.03216414003276</v>
       </c>
       <c r="H10">
-        <v>18.9330602479775</v>
+        <v>12.68848457472592</v>
       </c>
       <c r="I10">
-        <v>30.37087857132837</v>
+        <v>19.77116894588652</v>
       </c>
       <c r="J10">
-        <v>10.36446133830929</v>
+        <v>6.311342028329245</v>
       </c>
       <c r="K10">
-        <v>12.7269817407617</v>
+        <v>16.93883183826653</v>
       </c>
       <c r="L10">
-        <v>11.14045547301791</v>
+        <v>8.82566109450798</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.5922377579708</v>
+        <v>14.38094295872969</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.390273412838609</v>
+        <v>4.31567146666108</v>
       </c>
       <c r="E11">
-        <v>12.80326424169993</v>
+        <v>7.652628718026742</v>
       </c>
       <c r="F11">
-        <v>40.50240421153173</v>
+        <v>31.15298313451186</v>
       </c>
       <c r="G11">
-        <v>48.11607998658808</v>
+        <v>41.77671719661725</v>
       </c>
       <c r="H11">
-        <v>18.91232361747078</v>
+        <v>12.7497820527406</v>
       </c>
       <c r="I11">
-        <v>30.31096785090297</v>
+        <v>19.68558015032984</v>
       </c>
       <c r="J11">
-        <v>10.35605155742546</v>
+        <v>6.28609971476868</v>
       </c>
       <c r="K11">
-        <v>12.90102150682047</v>
+        <v>17.52419915086797</v>
       </c>
       <c r="L11">
-        <v>11.17124029109452</v>
+        <v>9.049455571213846</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.63003552472333</v>
+        <v>14.5456513966651</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.390781433370631</v>
+        <v>4.331833219817982</v>
       </c>
       <c r="E12">
-        <v>12.79930429997163</v>
+        <v>7.647403206063695</v>
       </c>
       <c r="F12">
-        <v>40.50391758398438</v>
+        <v>31.30939509840311</v>
       </c>
       <c r="G12">
-        <v>48.1394895449462</v>
+        <v>42.0632221059673</v>
       </c>
       <c r="H12">
-        <v>18.90495915487586</v>
+        <v>12.77468733252876</v>
       </c>
       <c r="I12">
-        <v>30.28899682300623</v>
+        <v>19.65569766234586</v>
       </c>
       <c r="J12">
-        <v>10.35293032495925</v>
+        <v>6.276651860755162</v>
       </c>
       <c r="K12">
-        <v>12.96663401622765</v>
+        <v>17.74167930796862</v>
       </c>
       <c r="L12">
-        <v>11.18314007086354</v>
+        <v>9.133553940737164</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.6218879874965</v>
+        <v>14.5102951096041</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.390668999160088</v>
+        <v>4.328348040425076</v>
       </c>
       <c r="E13">
-        <v>12.80015232639549</v>
+        <v>7.648516576489288</v>
       </c>
       <c r="F13">
-        <v>40.50353290696811</v>
+        <v>31.27554749657692</v>
       </c>
       <c r="G13">
-        <v>48.13436293141723</v>
+        <v>42.00131535292604</v>
       </c>
       <c r="H13">
-        <v>18.90652350672091</v>
+        <v>12.76924691248924</v>
       </c>
       <c r="I13">
-        <v>30.29369682470167</v>
+        <v>19.66201818781876</v>
       </c>
       <c r="J13">
-        <v>10.35359972407315</v>
+        <v>6.278681721573506</v>
       </c>
       <c r="K13">
-        <v>12.95251720062132</v>
+        <v>17.69502619117945</v>
       </c>
       <c r="L13">
-        <v>11.18056657260074</v>
+        <v>9.115471263010754</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.59534415580118</v>
+        <v>14.39454613570711</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.390313845074107</v>
+        <v>4.316999099724072</v>
       </c>
       <c r="E14">
-        <v>12.80293628332712</v>
+        <v>7.652193403119238</v>
       </c>
       <c r="F14">
-        <v>40.50250224430846</v>
+        <v>31.16577855753376</v>
       </c>
       <c r="G14">
-        <v>48.11796761344443</v>
+        <v>41.80019675196754</v>
       </c>
       <c r="H14">
-        <v>18.91170795355366</v>
+        <v>12.75179661725272</v>
       </c>
       <c r="I14">
-        <v>30.30914592920369</v>
+        <v>19.68307004187695</v>
       </c>
       <c r="J14">
-        <v>10.35579350325713</v>
+        <v>6.285320222025621</v>
       </c>
       <c r="K14">
-        <v>12.90642571169991</v>
+        <v>17.5421748921986</v>
       </c>
       <c r="L14">
-        <v>11.17221447631803</v>
+        <v>9.056387595955979</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.57910661376231</v>
+        <v>14.32330550999525</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.390105163006891</v>
+        <v>4.310060547234993</v>
       </c>
       <c r="E15">
-        <v>12.80465565110508</v>
+        <v>7.654480633509188</v>
       </c>
       <c r="F15">
-        <v>40.50204296434388</v>
+        <v>31.09901376226982</v>
       </c>
       <c r="G15">
-        <v>48.10817389338033</v>
+        <v>41.67759952975057</v>
       </c>
       <c r="H15">
-        <v>18.91494715576133</v>
+        <v>12.74133076590511</v>
       </c>
       <c r="I15">
-        <v>30.31870220441274</v>
+        <v>19.69629926361882</v>
       </c>
       <c r="J15">
-        <v>10.35714550101746</v>
+        <v>6.289400882259474</v>
       </c>
       <c r="K15">
-        <v>12.87815336902664</v>
+        <v>17.44800586139609</v>
       </c>
       <c r="L15">
-        <v>11.16712992625762</v>
+        <v>9.020111636925634</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.4864044769434</v>
+        <v>13.90984984366536</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.389045467649994</v>
+        <v>4.270495920152578</v>
       </c>
       <c r="E16">
-        <v>12.81472525930617</v>
+        <v>7.6681177166315</v>
       </c>
       <c r="F16">
-        <v>40.50204836279809</v>
+        <v>30.7235999921817</v>
       </c>
       <c r="G16">
-        <v>48.05587101722727</v>
+        <v>40.98414383250694</v>
       </c>
       <c r="H16">
-        <v>18.93448369279242</v>
+        <v>12.68471110844336</v>
       </c>
       <c r="I16">
-        <v>30.37489400412174</v>
+        <v>19.77710687093985</v>
       </c>
       <c r="J16">
-        <v>10.36501981927889</v>
+        <v>6.313007279483172</v>
       </c>
       <c r="K16">
-        <v>12.71557035664135</v>
+        <v>16.89998752900998</v>
       </c>
       <c r="L16">
-        <v>11.1384778680999</v>
+        <v>8.810947160053422</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.42986957481514</v>
+        <v>13.65159353989913</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.388517298767634</v>
+        <v>4.246398795220199</v>
       </c>
       <c r="E17">
-        <v>12.82109622610513</v>
+        <v>7.676948515586468</v>
       </c>
       <c r="F17">
-        <v>40.50440541450806</v>
+        <v>30.49966252373651</v>
       </c>
       <c r="G17">
-        <v>48.0272005457235</v>
+        <v>40.56685339209016</v>
       </c>
       <c r="H17">
-        <v>18.94733724183428</v>
+        <v>12.65290486002268</v>
       </c>
       <c r="I17">
-        <v>30.4106399498993</v>
+        <v>19.83100199103403</v>
       </c>
       <c r="J17">
-        <v>10.36996361064898</v>
+        <v>6.327688331460831</v>
       </c>
       <c r="K17">
-        <v>12.61537833455364</v>
+        <v>16.55627395120142</v>
       </c>
       <c r="L17">
-        <v>11.12133920118813</v>
+        <v>8.681522483943139</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.39748465529278</v>
+        <v>13.50136914914096</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.388258475167525</v>
+        <v>4.232602375423357</v>
       </c>
       <c r="E18">
-        <v>12.82483190267231</v>
+        <v>7.682195584810142</v>
       </c>
       <c r="F18">
-        <v>40.50662617048758</v>
+        <v>30.37318045776914</v>
       </c>
       <c r="G18">
-        <v>48.01196744174311</v>
+        <v>40.32982599733083</v>
       </c>
       <c r="H18">
-        <v>18.95504919811971</v>
+        <v>12.63566058193653</v>
       </c>
       <c r="I18">
-        <v>30.43166801681065</v>
+        <v>19.86353700931565</v>
       </c>
       <c r="J18">
-        <v>10.37284881738403</v>
+        <v>6.336206278608386</v>
       </c>
       <c r="K18">
-        <v>12.55760525797407</v>
+        <v>16.35579565154261</v>
       </c>
       <c r="L18">
-        <v>11.11164467235387</v>
+        <v>8.60668826189492</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.38654331829708</v>
+        <v>13.45021832687819</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.388178579801543</v>
+        <v>4.227942033199794</v>
       </c>
       <c r="E19">
-        <v>12.82610898998383</v>
+        <v>7.684000701988062</v>
       </c>
       <c r="F19">
-        <v>40.50752664746145</v>
+        <v>30.33075259824664</v>
       </c>
       <c r="G19">
-        <v>48.00702591160304</v>
+        <v>40.25008590272142</v>
       </c>
       <c r="H19">
-        <v>18.95771508747029</v>
+        <v>12.62999979887031</v>
       </c>
       <c r="I19">
-        <v>30.43886810228896</v>
+        <v>19.8748117713255</v>
       </c>
       <c r="J19">
-        <v>10.37383286359741</v>
+        <v>6.339103036366657</v>
       </c>
       <c r="K19">
-        <v>12.53802136865034</v>
+        <v>16.28743738078169</v>
       </c>
       <c r="L19">
-        <v>11.10839048871924</v>
+        <v>8.581284800182603</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.43587431416853</v>
+        <v>13.67925980745025</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.388568873120985</v>
+        <v>4.248957382584752</v>
       </c>
       <c r="E20">
-        <v>12.82041065292256</v>
+        <v>7.67599102646254</v>
       </c>
       <c r="F20">
-        <v>40.50406497313793</v>
+        <v>30.52326042207776</v>
       </c>
       <c r="G20">
-        <v>48.03012247492494</v>
+        <v>40.6109655892578</v>
       </c>
       <c r="H20">
-        <v>18.94593594537919</v>
+        <v>12.65618144613577</v>
       </c>
       <c r="I20">
-        <v>30.40678629609855</v>
+        <v>19.82510463734163</v>
       </c>
       <c r="J20">
-        <v>10.36943302500249</v>
+        <v>6.326117883557232</v>
       </c>
       <c r="K20">
-        <v>12.62605946285479</v>
+        <v>16.59315049901038</v>
       </c>
       <c r="L20">
-        <v>11.12314679877289</v>
+        <v>8.695340950752959</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.60313633157905</v>
+        <v>14.42861553536618</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.390416316915226</v>
+        <v>4.320329844251063</v>
       </c>
       <c r="E21">
-        <v>12.80211562706674</v>
+        <v>7.651106103219036</v>
       </c>
       <c r="F21">
-        <v>40.50276912559467</v>
+        <v>31.1979219171118</v>
       </c>
       <c r="G21">
-        <v>48.122731464003</v>
+        <v>41.85914642059208</v>
       </c>
       <c r="H21">
-        <v>18.91017190488214</v>
+        <v>12.75687558010262</v>
       </c>
       <c r="I21">
-        <v>30.30458871737128</v>
+        <v>19.67681661078347</v>
       </c>
       <c r="J21">
-        <v>10.35514741942352</v>
+        <v>6.283367338302679</v>
       </c>
       <c r="K21">
-        <v>12.91997234135819</v>
+        <v>17.58718410798025</v>
       </c>
       <c r="L21">
-        <v>11.17466116804514</v>
+        <v>9.073759786058522</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.7134313636732</v>
+        <v>14.9031319483224</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.392020716006607</v>
+        <v>4.367556203139935</v>
       </c>
       <c r="E22">
-        <v>12.79079079610991</v>
+        <v>7.636403622087355</v>
       </c>
       <c r="F22">
-        <v>40.50962220479573</v>
+        <v>31.65992092165659</v>
       </c>
       <c r="G22">
-        <v>48.19440257277495</v>
+        <v>42.70148379044845</v>
       </c>
       <c r="H22">
-        <v>18.88964304116811</v>
+        <v>12.83259341324383</v>
       </c>
       <c r="I22">
-        <v>30.24196969775351</v>
+        <v>19.59472328931729</v>
       </c>
       <c r="J22">
-        <v>10.34618019194909</v>
+        <v>6.256072805028445</v>
       </c>
       <c r="K22">
-        <v>13.11032825813641</v>
+        <v>18.21247783678637</v>
       </c>
       <c r="L22">
-        <v>11.2097375308517</v>
+        <v>9.317289454146636</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.65448487607193</v>
+        <v>14.65127624898225</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.391128261090202</v>
+        <v>4.34229658205882</v>
       </c>
       <c r="E23">
-        <v>12.79677736521384</v>
+        <v>7.644104299712032</v>
       </c>
       <c r="F23">
-        <v>40.5052603554468</v>
+        <v>31.41139592582801</v>
       </c>
       <c r="G23">
-        <v>48.15513343242776</v>
+        <v>42.24947901000176</v>
       </c>
       <c r="H23">
-        <v>18.90033914322374</v>
+        <v>12.7912474313106</v>
       </c>
       <c r="I23">
-        <v>30.27500852321687</v>
+        <v>19.63712402937069</v>
       </c>
       <c r="J23">
-        <v>10.350932471636</v>
+        <v>6.270581914305278</v>
       </c>
       <c r="K23">
-        <v>13.00891092327281</v>
+        <v>17.88095441869158</v>
       </c>
       <c r="L23">
-        <v>11.19088992145202</v>
+        <v>9.18767187897007</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.4331592025009</v>
+        <v>13.66675733367479</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.388545416709783</v>
+        <v>4.247800466761125</v>
       </c>
       <c r="E24">
-        <v>12.82072037340419</v>
+        <v>7.676423378103848</v>
       </c>
       <c r="F24">
-        <v>40.5042161901377</v>
+        <v>30.51258476928216</v>
       </c>
       <c r="G24">
-        <v>48.02879757667537</v>
+        <v>40.59101349867841</v>
       </c>
       <c r="H24">
-        <v>18.94656846763549</v>
+        <v>12.65469686351465</v>
       </c>
       <c r="I24">
-        <v>30.4085270464024</v>
+        <v>19.8277660154185</v>
       </c>
       <c r="J24">
-        <v>10.36967276895639</v>
+        <v>6.326827641170762</v>
       </c>
       <c r="K24">
-        <v>12.62123105346823</v>
+        <v>16.57648756430976</v>
       </c>
       <c r="L24">
-        <v>11.12232908901962</v>
+        <v>8.689094946053572</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.19960382641056</v>
+        <v>12.54079974595341</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.387480400522503</v>
+        <v>4.148304798159112</v>
       </c>
       <c r="E25">
-        <v>12.8492729975108</v>
+        <v>7.71767115788739</v>
       </c>
       <c r="F25">
-        <v>40.53615523331097</v>
+        <v>29.6315374148058</v>
       </c>
       <c r="G25">
-        <v>47.94060348844324</v>
+        <v>38.91635061006511</v>
       </c>
       <c r="H25">
-        <v>19.00862398474359</v>
+        <v>12.54721718950918</v>
       </c>
       <c r="I25">
-        <v>30.57043559026915</v>
+        <v>20.09156178475629</v>
       </c>
       <c r="J25">
-        <v>10.39148143805495</v>
+        <v>6.390326445534643</v>
       </c>
       <c r="K25">
-        <v>12.19779102909269</v>
+        <v>15.06281239999432</v>
       </c>
       <c r="L25">
-        <v>11.05463659283838</v>
+        <v>8.136567581433592</v>
       </c>
       <c r="M25">
         <v>0</v>
